--- a/Excel Projects/Marketing Project.xlsx
+++ b/Excel Projects/Marketing Project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
   <si>
     <r>
       <rPr>
@@ -213,7 +213,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">      Insert your Bar Chart of Users here.
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
@@ -247,7 +247,25 @@
     <t>1. What is one observation you can make about this chart?</t>
   </si>
   <si>
+    <t>Organic users has brought in the most users, more than all the others combined.</t>
+  </si>
+  <si>
+    <t>Those who were brought in by referrals visited the most pages per session.</t>
+  </si>
+  <si>
+    <t>Most of the revenue comes from the display, followed by organic search</t>
+  </si>
+  <si>
     <t xml:space="preserve">2. What is an insight you can draw from this chart? </t>
+  </si>
+  <si>
+    <t>Because the most users are brought to the website through organic search, this suggest to me that most users are already aware of the company. They are not really bringing a lot of people who do not know about the company, but instead bringing a lot of people who are already familiar with it.</t>
+  </si>
+  <si>
+    <t>It is likely that the people who were brought into the website by referral are searching for something specific, and so they visited more pages. Those who would click on a link from an email campaign probably found something interesting in order for them to click on the link, and they visited more pages in order to search for what they are looking for.</t>
+  </si>
+  <si>
+    <t>Those who got into the page by the Adwords campaign(display) most likely already knew what they wanted. After they got into the website, it was only a matter of time before they found what they want. This could also be why they visited the least pages per session.</t>
   </si>
   <si>
     <t xml:space="preserve">Email 1
@@ -311,6 +329,9 @@
   </si>
   <si>
     <t>Average Clicks</t>
+  </si>
+  <si>
+    <t>Complement</t>
   </si>
   <si>
     <r>
@@ -400,7 +421,19 @@
     </r>
   </si>
   <si>
+    <t>The open rates are quite similar to each other.</t>
+  </si>
+  <si>
+    <t>The click-through rate is really low.</t>
+  </si>
+  <si>
     <t xml:space="preserve">2. What is an insight you can draw from these charts? </t>
+  </si>
+  <si>
+    <t>The different emails seem to have little differentiation between them when it comes to open rate. This could mean that emails will have a consistent open rate no matter how the business tries to differentiate them, so it might not be a good way to reach new customers, especially with open rates being consistently below 28%</t>
+  </si>
+  <si>
+    <t>The click-through rate shows seems to be low. This means that to all the people who actually open the email, 96.5% of them will not click the link to get into our website. This shows that email may not be the best way to find new customers as there is very low engagement</t>
   </si>
   <si>
     <r>
@@ -720,6 +753,12 @@
     <t>Total:</t>
   </si>
   <si>
+    <t>While initially stable at first, impressions slowly increased.</t>
+  </si>
+  <si>
+    <t>Likes far exceed comments and shares</t>
+  </si>
+  <si>
     <t>Average:</t>
   </si>
   <si>
@@ -730,6 +769,12 @@
   </si>
   <si>
     <t>Share rate</t>
+  </si>
+  <si>
+    <t>Impressions are how many people saw a post. It could be that the person/team doing the post needed time to understand how to get the most impressions, which could be why the amount of impressions by post remained steady but then gradually increased.</t>
+  </si>
+  <si>
+    <t>I believe that likes are significantly higher because they are easier for viewers to do. Commenting and sharing a post takes some effort, while liking a post can become automatic, sometimes without giving another thought to it.</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1422,11 @@
     </xf>
     <xf borderId="4" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="2" fontId="2" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -1398,12 +1447,6 @@
     <xf borderId="32" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="20" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1550,12 +1593,1576 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="1155CC"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="1155CC"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia"/>
+              </a:rPr>
+              <a:t>Users by Channel</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Acquisition!$B$1:$B$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4285F4"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Acquisition!$A$3:$A$8</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Acquisition!$B$3:$B$8</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="2129424716"/>
+        <c:axId val="2075328536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2129424716"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
+                  <a:t>Channel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2075328536"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2075328536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
+                  <a:t>Users</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129424716"/>
+        <c:crosses val="max"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="1155CC"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="1155CC"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:rPr>
+              <a:t>Pages / Session</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Acquisition!$F$1:$F$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4285F4"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Acquisition!$A$3:$A$8</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Acquisition!$F$3:$F$8</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="768324713"/>
+        <c:axId val="2059050914"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="768324713"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
+                  <a:t>Channel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2059050914"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2059050914"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
+                  <a:t>Pages / Session</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768324713"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="1155CC"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="1155CC"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia"/>
+              </a:rPr>
+              <a:t>Revenue vs. Channel</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Acquisition!$I$1:$I$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4285F4"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Acquisition!$A$3:$A$8</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Acquisition!$I$3:$I$8</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1250328213"/>
+        <c:axId val="1507281868"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1250328213"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
+                  <a:t>Channel</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1507281868"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1507281868"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
+                  <a:t>Revenue</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1250328213"/>
+        <c:crosses val="max"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="1155CC"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="1155CC"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia"/>
+              </a:rPr>
+              <a:t>Open Rate by Email</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="DB4437"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F4B400"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0F9D58"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Emails!$O$2:$S$2,Emails!$R$3,Emails!$O$6:$S$6,Emails!$R$7,Emails!$O$10:$S$10,Emails!$R$11,Emails!$O$14:$S$14,Emails!$R$15)</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Emails!$R$4,Emails!$R$8,Emails!$R$12,Emails!$R$16)</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="1155CC"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="1155CC"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia"/>
+              </a:rPr>
+              <a:t>Average Click-Through Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Emails!$S$19</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:explosion val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0000FF"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:explosion val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="DB4437"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+          </c:dPt>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Emails!$S$20:$S$22</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="1155CC"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="1155CC"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia"/>
+              </a:rPr>
+              <a:t>Impressions by Post</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Facebook!$B$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Facebook!$A$3:$A$19</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Facebook!$B$3:$B$19</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="820283950"/>
+        <c:axId val="1376003149"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="820283950"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
+                  <a:t>Post ID</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1376003149"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1376003149"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
+                  <a:t>Impressions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="820283950"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="1155CC"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="1155CC"/>
+                </a:solidFill>
+                <a:latin typeface="Georgia"/>
+              </a:rPr>
+              <a:t>Likes, Comments and Shares by Posts</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.03258333333333333"/>
+          <c:y val="0.05"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Facebook!$C$1:$C$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Facebook!$A$3:$A$19</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Facebook!$C$3:$C$19</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Facebook!$D$1:$D$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="DB4437"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Facebook!$A$3:$A$19</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Facebook!$D$3:$D$19</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Facebook!$E$1:$E$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="F4B400"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Facebook!$A$3:$A$19</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Facebook!$E$3:$E$19</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="125998581"/>
+        <c:axId val="1068616861"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="125998581"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
+                  <a:t>Post ID</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068616861"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1068616861"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Roboto"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Roboto"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125998581"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>723900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4829175" cy="3390900"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5029200" cy="3390900"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4324350" cy="3390900"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4171950" cy="3352800"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4752975" cy="3419475"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1563,7 +3170,58 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3981450" cy="3381375"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 6" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4048125" cy="3381375"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 7" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2181,10 +3839,16 @@
       <c r="N46" s="48"/>
     </row>
     <row r="47">
-      <c r="A47" s="54"/>
-      <c r="F47" s="55"/>
+      <c r="A47" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" s="55" t="s">
+        <v>41</v>
+      </c>
       <c r="I47" s="48"/>
-      <c r="K47" s="55"/>
+      <c r="K47" s="55" t="s">
+        <v>42</v>
+      </c>
       <c r="N47" s="48"/>
     </row>
     <row r="48">
@@ -2194,22 +3858,28 @@
     </row>
     <row r="49">
       <c r="A49" s="53" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I49" s="48"/>
       <c r="K49" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="N49" s="48"/>
     </row>
     <row r="50">
-      <c r="A50" s="54"/>
-      <c r="F50" s="55"/>
+      <c r="A50" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="55" t="s">
+        <v>45</v>
+      </c>
       <c r="I50" s="48"/>
-      <c r="K50" s="55"/>
+      <c r="K50" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="N50" s="48"/>
     </row>
     <row r="51">
@@ -2307,71 +3977,71 @@
     <row r="1">
       <c r="A1" s="56"/>
       <c r="B1" s="57" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C1" s="58"/>
       <c r="D1" s="59"/>
       <c r="E1" s="57" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F1" s="58"/>
       <c r="G1" s="59"/>
       <c r="H1" s="60" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I1" s="58"/>
       <c r="J1" s="59"/>
       <c r="K1" s="60" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="L1" s="58"/>
       <c r="M1" s="59"/>
       <c r="O1" s="61" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="I2" s="63" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L2" s="63" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M2" s="64" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O2" s="65" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -2419,19 +4089,19 @@
         <v>1.0</v>
       </c>
       <c r="O3" s="71" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -2582,7 +4252,7 @@
         <v>0.0</v>
       </c>
       <c r="O6" s="76" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
@@ -2630,19 +4300,19 @@
         <v>0.0</v>
       </c>
       <c r="O7" s="71" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="S7" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -2793,7 +4463,7 @@
         <v>0.0</v>
       </c>
       <c r="O10" s="76" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -2841,19 +4511,19 @@
         <v>0.0</v>
       </c>
       <c r="O11" s="71" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -3004,7 +4674,7 @@
         <v>0.0</v>
       </c>
       <c r="O14" s="76" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -3052,19 +4722,19 @@
         <v>0.0</v>
       </c>
       <c r="O15" s="71" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -3215,7 +4885,7 @@
         <v>0.0</v>
       </c>
       <c r="O18" s="76" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -3263,19 +4933,19 @@
         <v>0.0</v>
       </c>
       <c r="O19" s="71" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="S19" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -3382,10 +5052,12 @@
       <c r="O21" s="77"/>
       <c r="P21" s="33"/>
       <c r="Q21" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="R21" s="33"/>
-      <c r="S21" s="78"/>
+      <c r="S21" s="79" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="10">
@@ -3429,12 +5101,15 @@
       </c>
       <c r="O22" s="73"/>
       <c r="P22" s="74"/>
-      <c r="Q22" s="79">
+      <c r="Q22" s="80">
         <f>AVERAGE(Q16,Q12,Q8,Q4)</f>
         <v>7.25</v>
       </c>
       <c r="R22" s="74"/>
-      <c r="S22" s="75"/>
+      <c r="S22" s="81">
+        <f>1-S20</f>
+        <v>0.965060241</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="10">
@@ -3558,8 +5233,8 @@
       <c r="M25" s="70">
         <v>0.0</v>
       </c>
-      <c r="O25" s="80" t="s">
-        <v>60</v>
+      <c r="O25" s="82" t="s">
+        <v>67</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -3695,7 +5370,7 @@
         <v>0.0</v>
       </c>
       <c r="O28" s="71" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
@@ -3744,8 +5419,8 @@
       <c r="M29" s="70">
         <v>0.0</v>
       </c>
-      <c r="O29" s="81" t="s">
-        <v>62</v>
+      <c r="O29" s="83" t="s">
+        <v>69</v>
       </c>
       <c r="U29" s="67"/>
     </row>
@@ -3918,8 +5593,8 @@
       <c r="M33" s="70">
         <v>0.0</v>
       </c>
-      <c r="O33" s="82" t="s">
-        <v>63</v>
+      <c r="O33" s="84" t="s">
+        <v>70</v>
       </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
@@ -3968,8 +5643,8 @@
       <c r="M34" s="70">
         <v>0.0</v>
       </c>
-      <c r="O34" s="81" t="s">
-        <v>64</v>
+      <c r="O34" s="83" t="s">
+        <v>71</v>
       </c>
       <c r="U34" s="67"/>
     </row>
@@ -4099,13 +5774,13 @@
       <c r="M37" s="70">
         <v>0.0</v>
       </c>
-      <c r="O37" s="83"/>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="84"/>
+      <c r="O37" s="85"/>
+      <c r="P37" s="80"/>
+      <c r="Q37" s="80"/>
+      <c r="R37" s="80"/>
+      <c r="S37" s="80"/>
+      <c r="T37" s="80"/>
+      <c r="U37" s="86"/>
     </row>
     <row r="38">
       <c r="A38" s="10">
@@ -4229,17 +5904,17 @@
       <c r="M40" s="70">
         <v>0.0</v>
       </c>
-      <c r="O40" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="P40" s="86"/>
-      <c r="Q40" s="86"/>
-      <c r="R40" s="86"/>
-      <c r="S40" s="86"/>
-      <c r="T40" s="86"/>
-      <c r="U40" s="86"/>
-      <c r="V40" s="86"/>
-      <c r="W40" s="87"/>
+      <c r="O40" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="88"/>
+      <c r="W40" s="89"/>
     </row>
     <row r="41">
       <c r="A41" s="10">
@@ -4281,8 +5956,8 @@
       <c r="M41" s="70">
         <v>0.0</v>
       </c>
-      <c r="O41" s="88"/>
-      <c r="W41" s="89"/>
+      <c r="O41" s="90"/>
+      <c r="W41" s="91"/>
     </row>
     <row r="42">
       <c r="A42" s="10">
@@ -4324,8 +5999,8 @@
       <c r="M42" s="70">
         <v>0.0</v>
       </c>
-      <c r="O42" s="88"/>
-      <c r="W42" s="89"/>
+      <c r="O42" s="90"/>
+      <c r="W42" s="91"/>
     </row>
     <row r="43">
       <c r="A43" s="10">
@@ -4368,14 +6043,14 @@
         <v>0.0</v>
       </c>
       <c r="O43" s="46" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P43" s="44"/>
       <c r="Q43" s="44"/>
       <c r="R43" s="45"/>
       <c r="S43" s="33"/>
       <c r="T43" s="46" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="U43" s="44"/>
       <c r="V43" s="44"/>
@@ -5145,8 +6820,8 @@
       <c r="M60" s="70">
         <v>0.0</v>
       </c>
-      <c r="O60" s="90" t="s">
-        <v>68</v>
+      <c r="O60" s="92" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="61">
@@ -5320,8 +6995,12 @@
       <c r="M64" s="70">
         <v>0.0</v>
       </c>
-      <c r="O64" s="54"/>
-      <c r="T64" s="55"/>
+      <c r="O64" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="T64" s="55" t="s">
+        <v>77</v>
+      </c>
       <c r="W64" s="48"/>
     </row>
     <row r="65">
@@ -5407,9 +7086,12 @@
       <c r="M66" s="70">
         <v>0.0</v>
       </c>
-      <c r="O66" s="91"/>
+      <c r="O66" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R66" s="48"/>
       <c r="T66" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="W66" s="48"/>
     </row>
@@ -5453,8 +7135,13 @@
       <c r="M67" s="70">
         <v>0.0</v>
       </c>
-      <c r="O67" s="92"/>
-      <c r="T67" s="55"/>
+      <c r="O67" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="R67" s="48"/>
+      <c r="T67" s="55" t="s">
+        <v>80</v>
+      </c>
       <c r="W67" s="48"/>
     </row>
     <row r="68">
@@ -5497,7 +7184,7 @@
       <c r="M68" s="70">
         <v>0.0</v>
       </c>
-      <c r="O68" s="47"/>
+      <c r="R68" s="48"/>
       <c r="W68" s="48"/>
     </row>
     <row r="69">
@@ -5540,10 +7227,10 @@
       <c r="M69" s="70">
         <v>0.0</v>
       </c>
-      <c r="O69" s="49"/>
+      <c r="O69" s="50"/>
       <c r="P69" s="50"/>
       <c r="Q69" s="50"/>
-      <c r="R69" s="50"/>
+      <c r="R69" s="51"/>
       <c r="S69" s="50"/>
       <c r="T69" s="50"/>
       <c r="U69" s="50"/>
@@ -21661,7 +23348,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="94" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21671,7 +23358,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
       <c r="I1" s="95" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="J1" s="96"/>
       <c r="K1" s="97"/>
@@ -21682,34 +23369,34 @@
     </row>
     <row r="2">
       <c r="A2" s="98" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B2" s="99" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C2" s="99" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D2" s="99" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F2" s="100" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G2" s="99" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H2" s="99" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I2" s="101" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J2" s="102" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -21717,13 +23404,13 @@
         <v>43101.0</v>
       </c>
       <c r="B3" s="104" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C3" s="104" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D3" s="104" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E3" s="104">
         <v>9.0</v>
@@ -21745,13 +23432,13 @@
         <v>43101.0</v>
       </c>
       <c r="B4" s="104" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C4" s="104" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D4" s="104" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E4" s="104">
         <v>7.0</v>
@@ -21773,13 +23460,13 @@
         <v>43101.0</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C5" s="104" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D5" s="104" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E5" s="104">
         <v>1.0</v>
@@ -21801,13 +23488,13 @@
         <v>43101.0</v>
       </c>
       <c r="B6" s="104" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C6" s="104" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D6" s="104" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E6" s="104">
         <v>2.0</v>
@@ -21829,13 +23516,13 @@
         <v>43101.0</v>
       </c>
       <c r="B7" s="104" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C7" s="104" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D7" s="104" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E7" s="104">
         <v>1.0</v>
@@ -21857,13 +23544,13 @@
         <v>43101.0</v>
       </c>
       <c r="B8" s="104" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C8" s="104" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D8" s="104" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E8" s="104">
         <v>0.0</v>
@@ -21885,13 +23572,13 @@
         <v>43101.0</v>
       </c>
       <c r="B9" s="104" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D9" s="104" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E9" s="104">
         <v>17.0</v>
@@ -21913,13 +23600,13 @@
         <v>43101.0</v>
       </c>
       <c r="B10" s="104" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C10" s="104" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D10" s="104" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E10" s="104">
         <v>10.0</v>
@@ -21941,32 +23628,32 @@
         <v>43101.0</v>
       </c>
       <c r="B11" s="108" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C11" s="108" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D11" s="108" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E11" s="108" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F11" s="108" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G11" s="108" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="H11" s="108" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="I11" s="109"/>
       <c r="J11" s="110"/>
     </row>
     <row r="14">
       <c r="A14" s="111" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B14" s="112"/>
       <c r="C14" s="112"/>
@@ -21979,7 +23666,7 @@
     <row r="15">
       <c r="A15" s="114"/>
       <c r="B15" s="115" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C15" s="116"/>
       <c r="H15" s="117"/>
@@ -21987,25 +23674,25 @@
     <row r="16">
       <c r="A16" s="118"/>
       <c r="B16" s="115" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D16" s="115" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E16" s="119" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F16" s="119" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G16" s="119" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="H16" s="120" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
@@ -22042,7 +23729,7 @@
     <row r="18">
       <c r="A18" s="118"/>
       <c r="B18" s="115" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C18" s="115"/>
       <c r="D18" s="125">
@@ -22056,7 +23743,7 @@
     </row>
     <row r="19">
       <c r="A19" s="127" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H19" s="128"/>
     </row>
@@ -22074,7 +23761,7 @@
     </row>
     <row r="22">
       <c r="A22" s="129" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="H22" s="128"/>
       <c r="K22" s="130"/>
@@ -22089,7 +23776,7 @@
     </row>
     <row r="24">
       <c r="A24" s="131" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="H24" s="128"/>
     </row>
@@ -22133,7 +23820,7 @@
     </row>
     <row r="30">
       <c r="A30" s="135" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B30" s="136"/>
       <c r="C30" s="136"/>
@@ -22150,7 +23837,7 @@
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="138" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B31" s="139"/>
       <c r="C31" s="139"/>
@@ -22159,7 +23846,7 @@
       <c r="F31" s="139"/>
       <c r="G31" s="126"/>
       <c r="H31" s="138" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="I31" s="139"/>
       <c r="J31" s="139"/>
@@ -22268,7 +23955,7 @@
     </row>
     <row r="39">
       <c r="A39" s="135" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B39" s="136"/>
       <c r="C39" s="136"/>
@@ -22285,20 +23972,20 @@
     </row>
     <row r="40">
       <c r="A40" s="143" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="143" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="144" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="144" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -22340,46 +24027,46 @@
   <sheetData>
     <row r="1" ht="37.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-      <c r="H1" s="85" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="87"/>
+      <c r="H1" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="89"/>
     </row>
     <row r="2">
       <c r="A2" s="145" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B2" s="146" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C2" s="146" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D2" s="146" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E2" s="146" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F2" s="147" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="88"/>
-      <c r="P2" s="89"/>
+        <v>55</v>
+      </c>
+      <c r="H2" s="90"/>
+      <c r="P2" s="91"/>
     </row>
     <row r="3">
       <c r="A3" s="7">
@@ -22400,8 +24087,8 @@
       <c r="F3" s="67">
         <v>3.0</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="P3" s="89"/>
+      <c r="H3" s="90"/>
+      <c r="P3" s="91"/>
     </row>
     <row r="4">
       <c r="A4" s="7">
@@ -22423,14 +24110,14 @@
         <v>4.0</v>
       </c>
       <c r="H4" s="46" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
       <c r="K4" s="45"/>
       <c r="L4" s="33"/>
       <c r="M4" s="46" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="N4" s="44"/>
       <c r="O4" s="44"/>
@@ -22504,7 +24191,7 @@
         <v>4.0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="H7" s="47"/>
       <c r="K7" s="48"/>
@@ -22555,7 +24242,7 @@
         <v>3.0</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="H9" s="47"/>
       <c r="K9" s="48"/>
@@ -22782,19 +24469,19 @@
       <c r="A19" s="13">
         <v>17.0</v>
       </c>
-      <c r="B19" s="79">
+      <c r="B19" s="80">
         <v>261.0</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="80">
         <v>30.0</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="80">
         <v>3.0</v>
       </c>
-      <c r="E19" s="79">
+      <c r="E19" s="80">
         <v>3.0</v>
       </c>
-      <c r="F19" s="84">
+      <c r="F19" s="86">
         <v>2.0</v>
       </c>
       <c r="H19" s="47"/>
@@ -22814,15 +24501,15 @@
     </row>
     <row r="21">
       <c r="A21" s="148" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="B21" s="112"/>
       <c r="C21" s="112"/>
       <c r="D21" s="112"/>
       <c r="E21" s="112"/>
       <c r="F21" s="113"/>
-      <c r="H21" s="90" t="s">
-        <v>116</v>
+      <c r="H21" s="92" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="22">
@@ -22836,19 +24523,19 @@
     <row r="24">
       <c r="A24" s="149"/>
       <c r="B24" s="32" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="F24" s="150" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H24" s="53" t="s">
         <v>39</v>
@@ -22861,7 +24548,7 @@
     </row>
     <row r="25">
       <c r="A25" s="151" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25:F25" si="1">SUM(B3:B19)</f>
@@ -22883,13 +24570,17 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H25" s="152"/>
-      <c r="M25" s="10"/>
+      <c r="H25" s="152" t="s">
+        <v>129</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>130</v>
+      </c>
       <c r="P25" s="48"/>
     </row>
     <row r="26">
       <c r="A26" s="151" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B26">
         <f t="shared" ref="B26:F26" si="2">AVERAGE(B3:B19)</f>
@@ -22917,22 +24608,22 @@
     <row r="27">
       <c r="A27" s="149"/>
       <c r="C27" s="32" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F27" s="150" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H27" s="53" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="P27" s="48"/>
     </row>
@@ -22955,8 +24646,12 @@
         <f t="shared" si="3"/>
         <v>0.01351351351</v>
       </c>
-      <c r="H28" s="152"/>
-      <c r="M28" s="10"/>
+      <c r="H28" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="M28" s="55" t="s">
+        <v>136</v>
+      </c>
       <c r="P28" s="48"/>
     </row>
     <row r="29">
